--- a/2000503 - QUESTIONARIO PF GiuseppinaCafueri.xlsx
+++ b/2000503 - QUESTIONARIO PF GiuseppinaCafueri.xlsx
@@ -307,10 +307,10 @@
     <t>Giuseppina</t>
   </si>
   <si>
-    <t>1965-01-01</t>
-  </si>
-  <si>
-    <t>Nubile / Celibe</t>
+    <t>1988-01-01</t>
+  </si>
+  <si>
+    <t>X-Nubile / Celibe</t>
   </si>
   <si>
     <t>Solo io</t>
@@ -424,7 +424,7 @@
     <t>X-Fino a 2</t>
   </si>
   <si>
-    <t>X-Coniugato/a</t>
+    <t>Coniugato/a</t>
   </si>
   <si>
     <t>Non è mai possibile stabilire una relazione tra rischio e rendimento</t>
